--- a/FilmFinder/FilmFinder/bin/Debug/Subject 1 Pilot graph.xlsx
+++ b/FilmFinder/FilmFinder/bin/Debug/Subject 1 Pilot graph.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Subject 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
   <si>
     <t>Actor</t>
   </si>
@@ -25,40 +25,10 @@
     <t>Director</t>
   </si>
   <si>
-    <t>Trial Run</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Data Size</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Arrow Key Use</t>
-  </si>
-  <si>
-    <t>Interface Averages</t>
-  </si>
-  <si>
-    <t>Interface Average w/ data size</t>
-  </si>
-  <si>
     <t>trackbar</t>
   </si>
   <si>
     <t>alpha</t>
-  </si>
-  <si>
-    <t>multi1</t>
   </si>
   <si>
     <t>histo</t>
@@ -67,19 +37,22 @@
     <t>active</t>
   </si>
   <si>
-    <t>mouse wheel</t>
+    <t>multi</t>
   </si>
   <si>
-    <t>list combo</t>
+    <t>mousewheel</t>
   </si>
   <si>
-    <t>actors</t>
+    <t>list</t>
   </si>
   <si>
-    <t>actresses</t>
+    <t>Low</t>
   </si>
   <si>
-    <t>directors</t>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -645,33 +618,223 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 1'!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 1'!$J$35:$P$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Subject 1'!$J$2:$J$8</c:f>
+              <c:f>'Subject 1'!$J$36:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15955</c:v>
+                  <c:v>19212.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13400.444444444445</c:v>
+                  <c:v>12635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16573.666666666668</c:v>
+                  <c:v>8445.3333333333339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12461.222222222223</c:v>
+                  <c:v>13463.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30591.666666666668</c:v>
+                  <c:v>9369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10608.666666666666</c:v>
+                  <c:v>14221.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12575.375</c:v>
+                  <c:v>41356.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 1'!$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 1'!$J$35:$P$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 1'!$J$37:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16742.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12825.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15018.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12563.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11637.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 1'!$I$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 1'!$J$35:$P$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 1'!$J$38:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12612.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15578.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21239.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9893.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21160.333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,11 +849,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88962176"/>
-        <c:axId val="88964096"/>
+        <c:axId val="96294784"/>
+        <c:axId val="96296320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88962176"/>
+        <c:axId val="96294784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88964096"/>
+        <c:crossAx val="96296320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -707,7 +870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88964096"/>
+        <c:axId val="96296320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,11 +881,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88962176"/>
+        <c:crossAx val="96294784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -759,74 +927,222 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 1'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 1'!$I$20:$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Subject 1'!$K$19:$K$39</c:f>
+              <c:f>'Subject 1'!$J$20:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>14151.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11946.666666666666</c:v>
+                  <c:v>15684.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12352</c:v>
+                  <c:v>15100.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19154.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 1'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 1'!$I$20:$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 1'!$K$20:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22328.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13207.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13692</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>20157</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>16163.333333333334</c:v>
+                  <c:v>10340.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13767.666666666666</c:v>
+                  <c:v>19723.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>45932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subject 1'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subject 1'!$I$20:$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>trackbar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>multi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>histo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>active</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mousewheel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subject 1'!$L$20:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11309.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8057.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10409.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>9139.3333333333339</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>15684.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12793</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7997.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20157</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11796</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10224</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="5">
                   <c:v>7436.333333333333</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>15100.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14169</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15662.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10340.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11923.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25210</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="6">
                   <c:v>16667</c:v>
                 </c:pt>
               </c:numCache>
@@ -842,11 +1158,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92189824"/>
-        <c:axId val="117534080"/>
+        <c:axId val="123801984"/>
+        <c:axId val="123803520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92189824"/>
+        <c:axId val="123801984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +1171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117534080"/>
+        <c:crossAx val="123803520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117534080"/>
+        <c:axId val="123803520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92189824"/>
+        <c:crossAx val="123801984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -920,21 +1236,10 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Subject 1'!$N$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>actors</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Subject 1'!$M$20:$M$26</c:f>
+              <c:f>'Subject 1'!$H$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -944,7 +1249,7 @@
                   <c:v>alpha</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>multi1</c:v>
+                  <c:v>multi</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>histo</c:v>
@@ -953,190 +1258,40 @@
                   <c:v>active</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mouse wheel</c:v>
+                  <c:v>mousewheel</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>list combo</c:v>
+                  <c:v>list</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Subject 1'!$N$20:$N$26</c:f>
+              <c:f>'Subject 1'!$H$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14151.333333333334</c:v>
+                  <c:v>15955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11946.666666666666</c:v>
+                  <c:v>13400.444444444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12352</c:v>
+                  <c:v>12283.222222222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13692</c:v>
+                  <c:v>16573.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16163.333333333334</c:v>
+                  <c:v>10608.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13767.666666666666</c:v>
+                  <c:v>12461.222222222223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9139.3333333333339</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Subject 1'!$O$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>actresses</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Subject 1'!$M$20:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>trackbar</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>alpha</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>multi1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>histo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>active</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mouse wheel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>list combo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Subject 1'!$O$20:$O$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15684.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12793</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7997.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20157</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7436.333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Subject 1'!$P$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>directors</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Subject 1'!$M$20:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>trackbar</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>alpha</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>multi1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>histo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>active</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mouse wheel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>list combo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Subject 1'!$P$20:$P$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15100.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14169</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15662.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10340.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11923.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16667</c:v>
+                  <c:v>30591.666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,11 +1306,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40152448"/>
-        <c:axId val="40436864"/>
+        <c:axId val="126386176"/>
+        <c:axId val="126387712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40152448"/>
+        <c:axId val="126386176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40436864"/>
+        <c:crossAx val="126387712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1172,7 +1327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40436864"/>
+        <c:axId val="126387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,16 +1338,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40152448"/>
+        <c:crossAx val="126386176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1209,20 +1359,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1239,20 +1389,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1269,20 +1419,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1587,912 +1737,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:P26"/>
+      <selection activeCell="H1" sqref="H1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>25761</v>
+      </c>
+      <c r="F1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8815</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(E1:E9)</f>
+        <v>15955</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(E10:E18)</f>
+        <v>13400.444444444445</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(E19:E27)</f>
+        <v>12283.222222222223</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(E28:E36)</f>
+        <v>16573.666666666668</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(E37:E45)</f>
+        <v>10608.666666666666</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(E46:E54)</f>
+        <v>12461.222222222223</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(E55:E63)</f>
+        <v>30591.666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>7878</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>22182</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>25782</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>19022</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>9694</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>15631</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>8830</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>11379</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>25761</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>AVERAGE(E2:E10)</f>
-        <v>15955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>8815</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <f>AVERAGE(E11:E19)</f>
-        <v>13400.444444444445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>7878</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <f>AVERAGE(E29:E37)</f>
-        <v>16573.666666666668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>20554</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>15121</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>20954</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5746</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>12922</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>5572</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>18562</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>9794</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10023</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>15143</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>22182</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="J20">
+        <f>AVERAGE(E1:E3)</f>
+        <v>14151.333333333334</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE(E4:E6)</f>
+        <v>22328.666666666668</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE(E7:E9)</f>
+        <v>11385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>20135</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(E10:E12)</f>
+        <v>15684.666666666666</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE(E13:E15)</f>
+        <v>13207.333333333334</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGE(E16:E18)</f>
+        <v>11309.333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>9946</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE(E19:E21)</f>
+        <v>15100.333333333334</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(E22:E24)</f>
+        <v>13692</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGE(E25:E27)</f>
+        <v>8057.333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>17919</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(E28:E30)</f>
+        <v>19154.333333333332</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(E31:E33)</f>
+        <v>20157</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(E34:E36)</f>
+        <v>10409.666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>13211</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(E37:E39)</f>
+        <v>12346</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(E40:E42)</f>
+        <v>10340.666666666666</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE(E43:E45)</f>
+        <v>9139.3333333333339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>5367</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(E46:E48)</f>
+        <v>10224</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(E49:E51)</f>
+        <v>19723.333333333332</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE(E52:E54)</f>
+        <v>7436.333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5415</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(E55:E57)</f>
+        <v>29176</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(E58:E60)</f>
+        <v>45932</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(E61:E63)</f>
+        <v>16667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>13390</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>45</v>
+      </c>
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="J5">
-        <f>AVERAGE(E47:E55)</f>
-        <v>12461.222222222223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>25782</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <f>AVERAGE(E56:E64)</f>
-        <v>30591.666666666668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>19022</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <f>AVERAGE(E38:E46)</f>
-        <v>10608.666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>9694</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <f>AVERAGE(E20,E21,E22,E24,E25,E26,E27,E28)</f>
-        <v>12575.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>15631</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>8830</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>11379</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>20554</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>15121</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>20954</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>5746</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>12922</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>5572</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>18562</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>9794</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <f>AVERAGE(E2:E4)</f>
-        <v>14151.333333333334</v>
-      </c>
-      <c r="N19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>10023</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f>AVERAGE(E9:E11)</f>
-        <v>11946.666666666666</v>
-      </c>
-      <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>14151.333333333334</v>
-      </c>
-      <c r="O20">
-        <v>15684.666666666666</v>
-      </c>
-      <c r="P20">
-        <v>15100.333333333334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>15143</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f>AVERAGE(E16:E18)</f>
-        <v>12352</v>
-      </c>
-      <c r="M21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21">
-        <v>11946.666666666666</v>
-      </c>
-      <c r="O21">
-        <v>12793</v>
-      </c>
-      <c r="P21">
-        <v>14169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>20135</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <f>AVERAGE(E23:E25)</f>
-        <v>13692</v>
-      </c>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <v>12352</v>
-      </c>
-      <c r="O22">
-        <v>7997.666666666667</v>
-      </c>
-      <c r="P22">
-        <v>15662.333333333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>9946</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f>AVERAGE(E30:E32)</f>
-        <v>16163.333333333334</v>
-      </c>
-      <c r="M23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>13692</v>
-      </c>
-      <c r="O23">
-        <v>20157</v>
-      </c>
-      <c r="P23">
-        <v>10340.666666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>17919</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f>AVERAGE(E37:E39)</f>
-        <v>13767.666666666666</v>
-      </c>
-      <c r="M24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>16163.333333333334</v>
-      </c>
-      <c r="O24">
-        <v>11796</v>
-      </c>
-      <c r="P24">
-        <v>11923.666666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>13211</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>6</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <f>AVERAGE(E44:E46)</f>
-        <v>9139.3333333333339</v>
-      </c>
-      <c r="M25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25">
-        <v>13767.666666666666</v>
-      </c>
-      <c r="O25">
-        <v>10224</v>
-      </c>
-      <c r="P25">
-        <v>25210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>5367</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <f>AVERAGE(E11:E13)</f>
-        <v>15684.666666666666</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26">
-        <v>9139.3333333333339</v>
-      </c>
-      <c r="O26">
-        <v>7436.333333333333</v>
-      </c>
-      <c r="P26">
-        <v>16667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>5415</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <f>AVERAGE(E18:E20)</f>
-        <v>12793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>13390</v>
+        <v>23702</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <f>AVERAGE(E25:E27)</f>
-        <v>7997.666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -2501,31 +2479,18 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>23702</v>
+        <v>16633</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <f>AVERAGE(E32:E34)</f>
-        <v>20157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -2534,64 +2499,38 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>16633</v>
+        <v>17128</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <f>AVERAGE(E39:E41)</f>
-        <v>11796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>17128</v>
+        <v>14729</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <f>AVERAGE(E47:E49)</f>
-        <v>10224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2600,31 +2539,18 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>14729</v>
+        <v>14568</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>6</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <f>AVERAGE(E53:E55)</f>
-        <v>7436.333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2633,64 +2559,38 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>14568</v>
+        <v>31174</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33">
-        <f>AVERAGE(E20:E22)</f>
-        <v>15100.333333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>31174</v>
+        <v>1959</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <f>AVERAGE(E27:E29)</f>
-        <v>14169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2699,31 +2599,39 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1959</v>
+        <v>13854</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35">
+      <c r="J35" t="s">
         <v>3</v>
       </c>
-      <c r="K35">
-        <f>AVERAGE(E34:E36)</f>
-        <v>15662.333333333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2732,64 +2640,100 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>13854</v>
+        <v>15416</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
+      <c r="I36" t="s">
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <f>AVERAGE(E1,E4,E7)</f>
+        <v>19212.333333333332</v>
       </c>
       <c r="K36">
-        <f>AVERAGE(E41:E43)</f>
-        <v>10340.666666666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <f>AVERAGE(E10,E13,E16)</f>
+        <v>12635</v>
+      </c>
+      <c r="L36">
+        <f>AVERAGE(E19,E22,E25)</f>
+        <v>8445.3333333333339</v>
+      </c>
+      <c r="M36">
+        <f>AVERAGE(E28,E31,E34)</f>
+        <v>13463.333333333334</v>
+      </c>
+      <c r="N36">
+        <f>AVERAGE(E37,E40,E43)</f>
+        <v>9369</v>
+      </c>
+      <c r="O36">
+        <f>AVERAGE(E46,E49,E52)</f>
+        <v>14221.333333333334</v>
+      </c>
+      <c r="P36">
+        <f>AVERAGE(E55,E58,E61)</f>
+        <v>41356.666666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>15416</v>
+        <v>11825</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>4</v>
+      <c r="I37" t="s">
+        <v>11</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <f t="shared" ref="J37:J38" si="0">AVERAGE(E2,E5,E8)</f>
+        <v>16742.666666666668</v>
       </c>
       <c r="K37">
-        <f>AVERAGE(E48:E50)</f>
-        <v>11923.666666666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <f>AVERAGE(E11,E14,E17)</f>
+        <v>14954</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE(E20,E23,E26)</f>
+        <v>12825.666666666666</v>
+      </c>
+      <c r="M37">
+        <f>AVERAGE(E29,E32,E35)</f>
+        <v>15018.333333333334</v>
+      </c>
+      <c r="N37">
+        <f>AVERAGE(E38,E41,E44)</f>
+        <v>12563.666666666666</v>
+      </c>
+      <c r="O37">
+        <f>AVERAGE(E47,E50,E53)</f>
+        <v>11637.333333333334</v>
+      </c>
+      <c r="P37">
+        <f>AVERAGE(E56,E59,E62)</f>
+        <v>29258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -2798,31 +2742,49 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>11825</v>
+        <v>14062</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
+      <c r="I38" t="s">
+        <v>12</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>11910</v>
       </c>
       <c r="K38">
-        <f>AVERAGE(E55:E57)</f>
-        <v>25210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <f>AVERAGE(E12,E15,E18)</f>
+        <v>12612.333333333334</v>
+      </c>
+      <c r="L38">
+        <f>AVERAGE(E21,E24,E27)</f>
+        <v>15578.666666666666</v>
+      </c>
+      <c r="M38">
+        <f>AVERAGE(E30,E33,E36)</f>
+        <v>21239.333333333332</v>
+      </c>
+      <c r="N38">
+        <f>AVERAGE(E39,E42,E45)</f>
+        <v>9893.3333333333339</v>
+      </c>
+      <c r="O38">
+        <f>AVERAGE(E48,E51,E54)</f>
+        <v>11525</v>
+      </c>
+      <c r="P38">
+        <f>AVERAGE(E57,E60,E63)</f>
+        <v>21160.333333333332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2831,54 +2793,38 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>14062</v>
+        <v>11151</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>6</v>
-      </c>
-      <c r="J39">
-        <v>3</v>
-      </c>
-      <c r="K39">
-        <f>AVERAGE(E62:E64)</f>
-        <v>16667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>11151</v>
+        <v>10175</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2887,21 +2833,18 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>10175</v>
+        <v>11350</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -2910,44 +2853,38 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>11350</v>
+        <v>9497</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>9497</v>
+        <v>6107</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2956,21 +2893,18 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>6107</v>
+        <v>12279</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -2979,44 +2913,38 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>12279</v>
+        <v>9032</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>9032</v>
+        <v>14967</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -3025,21 +2953,18 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>14967</v>
+        <v>7288</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -3048,44 +2973,38 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>7288</v>
+        <v>8417</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>8417</v>
+        <v>20066</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -3094,21 +3013,18 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>20066</v>
+        <v>22649</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -3117,44 +3033,38 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>22649</v>
+        <v>16455</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>16455</v>
+        <v>7631</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3163,21 +3073,18 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>7631</v>
+        <v>4975</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -3186,44 +3093,38 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>4975</v>
+        <v>9703</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>9703</v>
+        <v>28256</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3232,21 +3133,18 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>28256</v>
+        <v>37671</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3255,44 +3153,38 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>37671</v>
+        <v>21601</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>21601</v>
+        <v>78481</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3301,21 +3193,18 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>78481</v>
+        <v>25524</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3324,44 +3213,38 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>25524</v>
+        <v>33791</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>33791</v>
+        <v>17333</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3370,21 +3253,18 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>17333</v>
+        <v>24579</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3393,44 +3273,18 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>24579</v>
+        <v>8089</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>26</v>
-      </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>8089</v>
-      </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="I19:K39">
-    <sortCondition ref="J19"/>
+  <sortState ref="H19:J39">
+    <sortCondition ref="I19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
